--- a/Overall Stats/Hobbs/Hobbs Report.xlsx
+++ b/Overall Stats/Hobbs/Hobbs Report.xlsx
@@ -1,40 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Documents\GitHub\FitzFishing\2019\Hobbs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Documents\GitHub\FitzFishing\Overall Stats\Hobbs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBFA7948-F5E7-4138-85B5-DD3CEDFD9F21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3876F430-C104-47B2-8B7F-52763B7897DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12030" yWindow="1410" windowWidth="15375" windowHeight="7875" activeTab="2" xr2:uid="{C8B061DF-F30D-4D8E-9A49-1A7B2522362C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{C8B061DF-F30D-4D8E-9A49-1A7B2522362C}"/>
   </bookViews>
   <sheets>
     <sheet name="2017" sheetId="2" r:id="rId1"/>
     <sheet name="2018" sheetId="1" r:id="rId2"/>
     <sheet name="2019" sheetId="4" r:id="rId3"/>
-    <sheet name="Overall Stats" sheetId="3" r:id="rId4"/>
+    <sheet name="2020" sheetId="5" r:id="rId4"/>
+    <sheet name="Overall Stats" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="44">
   <si>
     <t>Lake/Pond</t>
   </si>
@@ -157,6 +152,15 @@
   </si>
   <si>
     <t>Cutthroat</t>
+  </si>
+  <si>
+    <t>Fishing Report 2020 Hobbs</t>
+  </si>
+  <si>
+    <t>1 Cutthroat 1 Rainbow</t>
+  </si>
+  <si>
+    <t>3 Bluegill 12 Rainbow</t>
   </si>
 </sst>
 </file>
@@ -282,7 +286,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -332,6 +336,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -601,13 +608,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>72</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>56</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1047,13 +1054,13 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>50.704225352112672</c:v>
+                  <c:v>47.590361445783131</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>39.436619718309856</c:v>
+                  <c:v>34.337349397590359</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.8591549295774641</c:v>
+                  <c:v>18.072289156626507</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2700,12 +2707,12 @@
       <c r="D2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13"/>
@@ -2754,12 +2761,12 @@
       <c r="D5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
     </row>
     <row r="6" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
@@ -2907,23 +2914,23 @@
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
       <c r="G2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="I2" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
     </row>
     <row r="3" spans="1:12" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
@@ -2992,12 +2999,12 @@
       <c r="H5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="23" t="s">
+      <c r="I5" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
     </row>
     <row r="6" spans="1:12" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
@@ -3134,8 +3141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D5DC392-685C-416A-87D1-C03A819CE030}">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3160,22 +3167,22 @@
       <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="24"/>
+      <c r="C2" s="25"/>
       <c r="D2" s="19" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
       <c r="J2" s="20"/>
       <c r="K2" s="20"/>
       <c r="L2" s="20"/>
@@ -3237,12 +3244,12 @@
       <c r="E5" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="F5" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
@@ -3384,11 +3391,268 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6247007A-3DBB-450D-983C-9F66FC03688B}">
+  <dimension ref="A1:M12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="53.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="27" x14ac:dyDescent="0.5">
+      <c r="A1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+    </row>
+    <row r="2" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+    </row>
+    <row r="3" spans="1:13" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="7">
+        <v>15</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7">
+        <v>2</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="7">
+        <v>7</v>
+      </c>
+      <c r="H4" s="7">
+        <v>1</v>
+      </c>
+      <c r="I4" s="7">
+        <v>16</v>
+      </c>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+    </row>
+    <row r="5" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="7">
+        <v>23</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7">
+        <v>1</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" spans="1:13" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7">
+        <v>16</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7">
+        <v>15</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7">
+        <v>21</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7">
+        <v>5</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="16">
+        <f>SUM(G4/$E9*100)</f>
+        <v>29.166666666666668</v>
+      </c>
+      <c r="H7" s="16">
+        <f t="shared" ref="H7:I7" si="0">SUM(H4/$E9*100)</f>
+        <v>4.1666666666666661</v>
+      </c>
+      <c r="I7" s="16">
+        <f t="shared" si="0"/>
+        <v>66.666666666666657</v>
+      </c>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7">
+        <v>5</v>
+      </c>
+      <c r="E8" s="7">
+        <v>1</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="9">
+        <f>SUM(E4:E8)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="10">
+        <f>AVERAGE(E4:E8)</f>
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="G5:J5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D162D8B-5DB0-4D2E-8378-13E141A72211}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3399,12 +3663,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
     </row>
     <row r="2" spans="1:4" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -3419,25 +3683,25 @@
     </row>
     <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
-        <f>SUM('2017'!E4+'2018'!I4)</f>
-        <v>72</v>
+        <f>SUM('2017'!E4+'2018'!I4+'2020'!G4)</f>
+        <v>79</v>
       </c>
       <c r="B3" s="7">
-        <f>SUM('2019'!F4)</f>
-        <v>56</v>
+        <f>SUM('2019'!F4+'2020'!H4)</f>
+        <v>57</v>
       </c>
       <c r="C3" s="7">
-        <f>SUM('2017'!F4+'2018'!J4)</f>
-        <v>14</v>
+        <f>SUM('2017'!F4+'2018'!J4+'2020'!I4)</f>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
     </row>
     <row r="5" spans="1:4" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
@@ -3453,15 +3717,15 @@
     <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <f>SUM(A3/$B$8*100)</f>
-        <v>50.704225352112672</v>
+        <v>47.590361445783131</v>
       </c>
       <c r="B6" s="16">
         <f>SUM(B3/$B$8*100)</f>
-        <v>39.436619718309856</v>
+        <v>34.337349397590359</v>
       </c>
       <c r="C6" s="16">
         <f>SUM(C3/$B$8*100)</f>
-        <v>9.8591549295774641</v>
+        <v>18.072289156626507</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -3469,8 +3733,8 @@
         <v>15</v>
       </c>
       <c r="B8" s="8">
-        <f>SUM('2017'!C10+'2018'!G10+'2019'!D10)</f>
-        <v>142</v>
+        <f>SUM('2017'!C10+'2018'!G10+'2019'!D10+'2020'!E9)</f>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -3478,8 +3742,8 @@
         <v>16</v>
       </c>
       <c r="B9" s="8">
-        <f>SUM('2017'!C11+'2018'!G11+'2019'!D11)</f>
-        <v>18</v>
+        <f>SUM('2017'!C11+'2018'!G11+'2019'!D11+'2020'!E10)</f>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -3488,7 +3752,7 @@
       </c>
       <c r="B10" s="15">
         <f>SUM(B8/B9)</f>
-        <v>7.8888888888888893</v>
+        <v>7.2173913043478262</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">

--- a/Overall Stats/Hobbs/Hobbs Report.xlsx
+++ b/Overall Stats/Hobbs/Hobbs Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Documents\GitHub\FitzFishing\Overall Stats\Hobbs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3876F430-C104-47B2-8B7F-52763B7897DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0531EDB3-8A65-4D8D-96BB-1FE9CDD5153D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{C8B061DF-F30D-4D8E-9A49-1A7B2522362C}"/>
+    <workbookView xWindow="5115" yWindow="1230" windowWidth="15375" windowHeight="7875" activeTab="3" xr2:uid="{C8B061DF-F30D-4D8E-9A49-1A7B2522362C}"/>
   </bookViews>
   <sheets>
     <sheet name="2017" sheetId="2" r:id="rId1"/>
@@ -3394,7 +3394,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6247007A-3DBB-450D-983C-9F66FC03688B}">
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>

--- a/Overall Stats/Hobbs/Hobbs Report.xlsx
+++ b/Overall Stats/Hobbs/Hobbs Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Documents\GitHub\FitzFishing\Overall Stats\Hobbs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0531EDB3-8A65-4D8D-96BB-1FE9CDD5153D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C65938-770F-4B13-8F44-69D25EA46577}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5115" yWindow="1230" windowWidth="15375" windowHeight="7875" activeTab="3" xr2:uid="{C8B061DF-F30D-4D8E-9A49-1A7B2522362C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{C8B061DF-F30D-4D8E-9A49-1A7B2522362C}"/>
   </bookViews>
   <sheets>
     <sheet name="2017" sheetId="2" r:id="rId1"/>
@@ -3394,7 +3394,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6247007A-3DBB-450D-983C-9F66FC03688B}">
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
@@ -3651,8 +3651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D162D8B-5DB0-4D2E-8378-13E141A72211}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Overall Stats/Hobbs/Hobbs Report.xlsx
+++ b/Overall Stats/Hobbs/Hobbs Report.xlsx
@@ -1,35 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Documents\GitHub\FitzFishing\Overall Stats\Hobbs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C65938-770F-4B13-8F44-69D25EA46577}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{982903C4-35D1-4C41-98C3-A4B39476211C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{C8B061DF-F30D-4D8E-9A49-1A7B2522362C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{C8B061DF-F30D-4D8E-9A49-1A7B2522362C}"/>
   </bookViews>
   <sheets>
     <sheet name="2017" sheetId="2" r:id="rId1"/>
     <sheet name="2018" sheetId="1" r:id="rId2"/>
     <sheet name="2019" sheetId="4" r:id="rId3"/>
     <sheet name="2020" sheetId="5" r:id="rId4"/>
-    <sheet name="Overall Stats" sheetId="3" r:id="rId5"/>
+    <sheet name="2021" sheetId="6" r:id="rId5"/>
+    <sheet name="Overall Stats" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="47">
   <si>
     <t>Lake/Pond</t>
   </si>
@@ -161,6 +169,15 @@
   </si>
   <si>
     <t>3 Bluegill 12 Rainbow</t>
+  </si>
+  <si>
+    <t>6 Bluegill 11 Rainbow</t>
+  </si>
+  <si>
+    <t>2 Bluegill 7 Rainbow</t>
+  </si>
+  <si>
+    <t>Fishing Report 2021 Hobbs</t>
   </si>
 </sst>
 </file>
@@ -286,7 +303,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -340,6 +357,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -347,6 +367,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -608,13 +634,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>79</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1054,13 +1080,13 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>47.590361445783131</c:v>
+                  <c:v>45.077720207253883</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>34.337349397590359</c:v>
+                  <c:v>29.533678756476682</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18.072289156626507</c:v>
+                  <c:v>25.388601036269431</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2707,12 +2733,12 @@
       <c r="D2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13"/>
@@ -2761,12 +2787,12 @@
       <c r="D5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
     </row>
     <row r="6" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
@@ -2914,23 +2940,23 @@
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
       <c r="G2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="I2" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
     </row>
     <row r="3" spans="1:12" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
@@ -2999,12 +3025,12 @@
       <c r="H5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="24" t="s">
+      <c r="I5" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
     </row>
     <row r="6" spans="1:12" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
@@ -3167,22 +3193,22 @@
       <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="25"/>
+      <c r="C2" s="26"/>
       <c r="D2" s="19" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
       <c r="J2" s="20"/>
       <c r="K2" s="20"/>
       <c r="L2" s="20"/>
@@ -3244,12 +3270,12 @@
       <c r="E5" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
@@ -3394,8 +3420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6247007A-3DBB-450D-983C-9F66FC03688B}">
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3428,23 +3454,23 @@
       <c r="A2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
       <c r="E2" s="22" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
       <c r="K2" s="20"/>
       <c r="L2" s="20"/>
       <c r="M2" s="20"/>
@@ -3516,12 +3542,12 @@
       <c r="F5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="G5" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
     </row>
@@ -3648,11 +3674,180 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{756CD2D9-9055-449E-99BE-837605F486E7}">
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="53.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="27" x14ac:dyDescent="0.5">
+      <c r="A1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="27"/>
+    </row>
+    <row r="2" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+    </row>
+    <row r="3" spans="1:8" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="28"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="7">
+        <v>13</v>
+      </c>
+      <c r="C4" s="7">
+        <v>17</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="7">
+        <v>8</v>
+      </c>
+      <c r="F4" s="7">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="7">
+        <v>14</v>
+      </c>
+      <c r="C5" s="7">
+        <v>9</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+    </row>
+    <row r="6" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="7">
+        <v>27</v>
+      </c>
+      <c r="C6" s="7">
+        <v>1</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="9">
+        <f>SUM(C4:C6)</f>
+        <v>27</v>
+      </c>
+      <c r="E7" s="16">
+        <f>SUM(E4/$C$7*100)</f>
+        <v>29.629629629629626</v>
+      </c>
+      <c r="F7" s="16">
+        <f>SUM(F4/$C$7*100)</f>
+        <v>70.370370370370367</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="10">
+        <f>AVERAGE(C4:C6)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="E5:H5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D162D8B-5DB0-4D2E-8378-13E141A72211}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3663,12 +3858,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
     </row>
     <row r="2" spans="1:4" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -3683,25 +3878,25 @@
     </row>
     <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
-        <f>SUM('2017'!E4+'2018'!I4+'2020'!G4)</f>
-        <v>79</v>
+        <f>SUM('2017'!E4+'2018'!I4+'2020'!G4+'2021'!E4)</f>
+        <v>87</v>
       </c>
       <c r="B3" s="7">
         <f>SUM('2019'!F4+'2020'!H4)</f>
         <v>57</v>
       </c>
       <c r="C3" s="7">
-        <f>SUM('2017'!F4+'2018'!J4+'2020'!I4)</f>
-        <v>30</v>
+        <f>SUM('2017'!F4+'2018'!J4+'2020'!I4+'2021'!F4)</f>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
     </row>
     <row r="5" spans="1:4" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
@@ -3717,15 +3912,15 @@
     <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <f>SUM(A3/$B$8*100)</f>
-        <v>47.590361445783131</v>
+        <v>45.077720207253883</v>
       </c>
       <c r="B6" s="16">
         <f>SUM(B3/$B$8*100)</f>
-        <v>34.337349397590359</v>
+        <v>29.533678756476682</v>
       </c>
       <c r="C6" s="16">
         <f>SUM(C3/$B$8*100)</f>
-        <v>18.072289156626507</v>
+        <v>25.388601036269431</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -3733,8 +3928,8 @@
         <v>15</v>
       </c>
       <c r="B8" s="8">
-        <f>SUM('2017'!C10+'2018'!G10+'2019'!D10+'2020'!E9)</f>
-        <v>166</v>
+        <f>SUM('2017'!C10+'2018'!G10+'2019'!D10+'2020'!E9+'2021'!C7)</f>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -3742,8 +3937,8 @@
         <v>16</v>
       </c>
       <c r="B9" s="8">
-        <f>SUM('2017'!C11+'2018'!G11+'2019'!D11+'2020'!E10)</f>
-        <v>23</v>
+        <f>SUM('2017'!C11+'2018'!G11+'2019'!D11+'2020'!E10+'2021'!C8)</f>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -3752,7 +3947,7 @@
       </c>
       <c r="B10" s="15">
         <f>SUM(B8/B9)</f>
-        <v>7.2173913043478262</v>
+        <v>7.4230769230769234</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
